--- a/hw4.xlsx
+++ b/hw4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6811\fsl\x64\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6811\fsl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7281F5B6-1E17-40A6-A9EE-60502ED1F032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4485EA-6FBE-40F0-9942-2A48A23060F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{9807C7AD-5A66-4715-B865-4CC476F57AD5}"/>
   </bookViews>
@@ -35,8 +35,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith Lewis</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{58B6E7A2-0993-423F-8C6B-22EE5669D3B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Add calculation for delta, gamma, and vega.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{F869B1DC-0643-4F1F-89E8-EC3315B49358}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Add checks for delta, gamma, and vega.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>t</t>
   </si>
@@ -69,10 +129,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -92,16 +153,72 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,21 +226,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3"/>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Handle" xfId="1" xr:uid="{FFD4E07E-EF98-42D2-B5CA-C9E8FE0F9574}"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,161 +689,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D459BD-FC1C-4AEE-A30B-8C3812DF0C36}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D459BD-FC1C-4AEE-A30B-8C3812DF0C36}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="str">
+        <f>HYPERLINK("https://goodcalculators.com/black-scholes-calculator/")</f>
+        <v>https://goodcalculators.com/black-scholes-calculator/</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="3" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="5">
         <v>0.2</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="5">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>7.9660000000000002</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>-0.46</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0.02</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>39.695</v>
       </c>
+      <c r="J3" s="6" cm="1">
+        <f t="array" ref="J3">_xll.BSM.PUT.VALUE(A3,B3,C3,D3,E3)</f>
+        <v>7.9655674554058038</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8" t="b">
+        <f>ABS(F3-J3)&lt;=0.001</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="4" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
         <v>0.05</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="5">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="5">
         <v>0.2</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="5">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>5.5739999999999998</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>-0.36299999999999999</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>1.9E-2</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>37.524000000000001</v>
       </c>
+      <c r="J4" s="6" cm="1">
+        <f t="array" ref="J4">_xll.BSM.PUT.VALUE(A4,B4,C4,D4,E4)</f>
+        <v>5.5735260222569671</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8" t="b">
+        <f t="shared" ref="N4:N6" si="0">ABS(F4-J4)&lt;=0.001</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="5" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
         <v>0.05</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="5">
         <v>110</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="5">
         <v>0.2</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="5">
         <v>100</v>
       </c>
-      <c r="F4">
-        <v>2.9969999999999999</v>
-      </c>
-      <c r="G4">
-        <v>-0.217</v>
-      </c>
-      <c r="H4">
+      <c r="F5">
+        <v>2.786</v>
+      </c>
+      <c r="G5">
+        <v>-0.20399999999999999</v>
+      </c>
+      <c r="H5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I4">
-        <v>32.057000000000002</v>
-      </c>
+      <c r="I5">
+        <v>31.184999999999999</v>
+      </c>
+      <c r="J5" s="6" cm="1">
+        <f t="array" ref="J5">_xll.BSM.PUT.VALUE(A5,B5,C5,D5,E5)</f>
+        <v>2.7858961906618487</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="6" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
         <v>0.05</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="5">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="5">
         <v>0.2</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="5">
         <v>90</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>2.31</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>-0.19</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>1.4E-2</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>27.163</v>
       </c>
+      <c r="J6" s="6" cm="1">
+        <f t="array" ref="J6">_xll.BSM.PUT.VALUE(A6,B6,C6,D6,E6)</f>
+        <v>2.3100966134802658</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
+    <row r="7" spans="1:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hw4.xlsx
+++ b/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6811\fsl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4485EA-6FBE-40F0-9942-2A48A23060F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A324445-7FED-4909-B7B0-91C005365DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{9807C7AD-5A66-4715-B865-4CC476F57AD5}"/>
+    <workbookView xWindow="960" yWindow="972" windowWidth="29424" windowHeight="15888" xr2:uid="{9807C7AD-5A66-4715-B865-4CC476F57AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Keith Lewis</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{58B6E7A2-0993-423F-8C6B-22EE5669D3B1}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{F869B1DC-0643-4F1F-89E8-EC3315B49358}">
       <text>
         <r>
           <rPr>
@@ -51,11 +51,39 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Add calculation for delta, gamma, and vega.</t>
+          <t>Add checks for delta, gamma, and vega.</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{F869B1DC-0643-4F1F-89E8-EC3315B49358}">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{96679C43-09C6-4220-B4FD-933E051BE9F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Add checks for delta, gamma, and vega.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{DB7E2D9F-2144-472F-854A-0F67304CE8C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Add checks for delta, gamma, and vega.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{10828D40-290F-4CA3-A50C-CD0433C334EF}">
       <text>
         <r>
           <rPr>
@@ -74,7 +102,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -96,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>t</t>
   </si>
@@ -124,6 +152,15 @@
   <si>
     <t>vega</t>
   </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>add-in</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +168,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -218,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -256,6 +293,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -267,22 +335,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3"/>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="4"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -693,7 +769,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -703,6 +779,24 @@
         <f>HYPERLINK("https://goodcalculators.com/black-scholes-calculator/")</f>
         <v>https://goodcalculators.com/black-scholes-calculator/</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -786,19 +880,37 @@
         <v>39.695</v>
       </c>
       <c r="J3" s="6" cm="1">
-        <f t="array" ref="J3">_xll.BSM.PUT.VALUE(A3,B3,C3,D3,E3)</f>
+        <f t="array" ref="J3">_xll.BSM.PUT.VALUE($A3,$B3,$C3,$D3,$E3)</f>
         <v>7.9655674554058038</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8" t="b">
+      <c r="K3" s="6" cm="1">
+        <f t="array" ref="K3">_xll.BSM.PUT.DELTA($A3,$B3,$C3,$D3,$E3)</f>
+        <v>-0.46017216272297101</v>
+      </c>
+      <c r="L3" s="6" cm="1">
+        <f t="array" ref="L3">_xll.BSM.PUT.GAMMA($A3,$B3,$C3,$D3,$E3)</f>
+        <v>1.9847627373850589E-2</v>
+      </c>
+      <c r="M3" s="6" cm="1">
+        <f t="array" ref="M3">_xll.BSM.PUT.VEGA($A3,$B3,$C3,$D3,$E3)</f>
+        <v>39.695254747701178</v>
+      </c>
+      <c r="N3" s="7" t="b">
         <f>ABS(F3-J3)&lt;=0.001</f>
         <v>1</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="O3" s="7" t="b">
+        <f>ABS(G3-K3)&lt;=0.001</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="b">
+        <f>ABS(H3-L3)&lt;=0.001</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="b">
+        <f>ABS(I3-M3)&lt;=0.001</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
@@ -829,19 +941,37 @@
         <v>37.524000000000001</v>
       </c>
       <c r="J4" s="6" cm="1">
-        <f t="array" ref="J4">_xll.BSM.PUT.VALUE(A4,B4,C4,D4,E4)</f>
+        <f t="array" ref="J4">_xll.BSM.PUT.VALUE($A4,$B4,$C4,$D4,$E4)</f>
         <v>5.5735260222569671</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8" t="b">
-        <f t="shared" ref="N4:N6" si="0">ABS(F4-J4)&lt;=0.001</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="K4" s="6" cm="1">
+        <f t="array" ref="K4">_xll.BSM.PUT.DELTA($A4,$B4,$C4,$D4,$E4)</f>
+        <v>-0.36316934882438096</v>
+      </c>
+      <c r="L4" s="6" cm="1">
+        <f t="array" ref="L4">_xll.BSM.PUT.GAMMA($A4,$B4,$C4,$D4,$E4)</f>
+        <v>1.8762017345846892E-2</v>
+      </c>
+      <c r="M4" s="6" cm="1">
+        <f t="array" ref="M4">_xll.BSM.PUT.VEGA($A4,$B4,$C4,$D4,$E4)</f>
+        <v>37.524034691693792</v>
+      </c>
+      <c r="N4" s="7" t="b">
+        <f t="shared" ref="N4:Q6" si="0">ABS(F4-J4)&lt;=0.001</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
@@ -872,19 +1002,37 @@
         <v>31.184999999999999</v>
       </c>
       <c r="J5" s="6" cm="1">
-        <f t="array" ref="J5">_xll.BSM.PUT.VALUE(A5,B5,C5,D5,E5)</f>
+        <f t="array" ref="J5">_xll.BSM.PUT.VALUE($A5,$B5,$C5,$D5,$E5)</f>
         <v>2.7858961906618487</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8" t="b">
+      <c r="K5" s="6" cm="1">
+        <f t="array" ref="K5">_xll.BSM.PUT.DELTA($A5,$B5,$C5,$D5,$E5)</f>
+        <v>-0.20424582869041358</v>
+      </c>
+      <c r="L5" s="6" cm="1">
+        <f t="array" ref="L5">_xll.BSM.PUT.GAMMA($A5,$B5,$C5,$D5,$E5)</f>
+        <v>1.2886510906085865E-2</v>
+      </c>
+      <c r="M5" s="6" cm="1">
+        <f t="array" ref="M5">_xll.BSM.PUT.VEGA($A5,$B5,$C5,$D5,$E5)</f>
+        <v>31.185356392727797</v>
+      </c>
+      <c r="N5" s="7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="O5" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
@@ -915,22 +1063,45 @@
         <v>27.163</v>
       </c>
       <c r="J6" s="6" cm="1">
-        <f t="array" ref="J6">_xll.BSM.PUT.VALUE(A6,B6,C6,D6,E6)</f>
+        <f t="array" ref="J6">_xll.BSM.PUT.VALUE($A6,$B6,$C6,$D6,$E6)</f>
         <v>2.3100966134802658</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8" t="b">
+      <c r="K6" s="6" cm="1">
+        <f t="array" ref="K6">_xll.BSM.PUT.DELTA($A6,$B6,$C6,$D6,$E6)</f>
+        <v>-0.19029693922450791</v>
+      </c>
+      <c r="L6" s="6" cm="1">
+        <f t="array" ref="L6">_xll.BSM.PUT.GAMMA($A6,$B6,$C6,$D6,$E6)</f>
+        <v>1.3581289746314734E-2</v>
+      </c>
+      <c r="M6" s="6" cm="1">
+        <f t="array" ref="M6">_xll.BSM.PUT.VEGA($A6,$B6,$C6,$D6,$E6)</f>
+        <v>27.162579492629472</v>
+      </c>
+      <c r="N6" s="7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="O6" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
